--- a/admin/doc_febrero17/2 -cronograma de ejecución financiera.xlsx
+++ b/admin/doc_febrero17/2 -cronograma de ejecución financiera.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -705,8 +705,11 @@
       <c r="B25" s="18" t="s">
         <v>24</v>
       </c>
+      <c r="C25" s="16" t="n">
+        <v>120000</v>
+      </c>
       <c r="D25" s="16" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="E25" s="16" t="n">
         <f aca="false">+SUM(C25:D25)</f>
@@ -765,8 +768,11 @@
       <c r="B30" s="18" t="s">
         <v>29</v>
       </c>
+      <c r="C30" s="16" t="n">
+        <v>50000</v>
+      </c>
       <c r="D30" s="16" t="n">
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="E30" s="16" t="n">
         <f aca="false">+SUM(C30:D30)</f>
@@ -790,11 +796,11 @@
       </c>
       <c r="C32" s="16" t="n">
         <f aca="false">+SUM(C13:C31)</f>
-        <v>270000</v>
+        <v>440000</v>
       </c>
       <c r="D32" s="16" t="n">
         <f aca="false">+SUM(D13:D31)</f>
-        <v>735000</v>
+        <v>565000</v>
       </c>
       <c r="E32" s="16" t="n">
         <f aca="false">+SUM(E13:E31)</f>
